--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_219.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_219.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32341-d77981-Reviews-DoubleTree_by_Hilton_Hotel_LAX_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>359</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>375</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-DoubleTree-By-Hilton-LAX-El-Segundo.h16424.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_219.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_219.xlsx
@@ -5095,7 +5095,7 @@
         <v>7968</v>
       </c>
       <c r="B2" t="n">
-        <v>140251</v>
+        <v>171392</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -5237,7 +5237,7 @@
         <v>7968</v>
       </c>
       <c r="B4" t="n">
-        <v>140252</v>
+        <v>171393</v>
       </c>
       <c r="C4" t="s">
         <v>62</v>
@@ -5308,7 +5308,7 @@
         <v>7968</v>
       </c>
       <c r="B5" t="n">
-        <v>140253</v>
+        <v>171394</v>
       </c>
       <c r="C5" t="s">
         <v>67</v>
@@ -5436,7 +5436,7 @@
         <v>7968</v>
       </c>
       <c r="B7" t="n">
-        <v>140254</v>
+        <v>171395</v>
       </c>
       <c r="C7" t="s">
         <v>78</v>
@@ -5574,7 +5574,7 @@
         <v>7968</v>
       </c>
       <c r="B9" t="n">
-        <v>140255</v>
+        <v>171396</v>
       </c>
       <c r="C9" t="s">
         <v>91</v>
@@ -5645,7 +5645,7 @@
         <v>7968</v>
       </c>
       <c r="B10" t="n">
-        <v>140256</v>
+        <v>171397</v>
       </c>
       <c r="C10" t="s">
         <v>98</v>
@@ -5716,7 +5716,7 @@
         <v>7968</v>
       </c>
       <c r="B11" t="n">
-        <v>140257</v>
+        <v>171398</v>
       </c>
       <c r="C11" t="s">
         <v>104</v>
@@ -5783,7 +5783,7 @@
         <v>7968</v>
       </c>
       <c r="B12" t="n">
-        <v>140258</v>
+        <v>171399</v>
       </c>
       <c r="C12" t="s">
         <v>112</v>
@@ -5921,7 +5921,7 @@
         <v>7968</v>
       </c>
       <c r="B14" t="n">
-        <v>140259</v>
+        <v>171400</v>
       </c>
       <c r="C14" t="s">
         <v>126</v>
@@ -5988,7 +5988,7 @@
         <v>7968</v>
       </c>
       <c r="B15" t="n">
-        <v>140260</v>
+        <v>171401</v>
       </c>
       <c r="C15" t="s">
         <v>133</v>
@@ -6201,7 +6201,7 @@
         <v>7968</v>
       </c>
       <c r="B18" t="n">
-        <v>140261</v>
+        <v>171402</v>
       </c>
       <c r="C18" t="s">
         <v>154</v>
@@ -6333,7 +6333,7 @@
         <v>7968</v>
       </c>
       <c r="B20" t="n">
-        <v>140262</v>
+        <v>171403</v>
       </c>
       <c r="C20" t="s">
         <v>170</v>
@@ -6465,7 +6465,7 @@
         <v>7968</v>
       </c>
       <c r="B22" t="n">
-        <v>140263</v>
+        <v>171404</v>
       </c>
       <c r="C22" t="s">
         <v>184</v>
@@ -6534,7 +6534,7 @@
         <v>7968</v>
       </c>
       <c r="B23" t="n">
-        <v>140264</v>
+        <v>171405</v>
       </c>
       <c r="C23" t="s">
         <v>192</v>
@@ -6595,7 +6595,7 @@
         <v>7968</v>
       </c>
       <c r="B24" t="n">
-        <v>140265</v>
+        <v>171406</v>
       </c>
       <c r="C24" t="s">
         <v>199</v>
@@ -6656,7 +6656,7 @@
         <v>7968</v>
       </c>
       <c r="B25" t="n">
-        <v>140266</v>
+        <v>171407</v>
       </c>
       <c r="C25" t="s">
         <v>206</v>
@@ -6908,7 +6908,7 @@
         <v>7968</v>
       </c>
       <c r="B29" t="n">
-        <v>140267</v>
+        <v>171408</v>
       </c>
       <c r="C29" t="s">
         <v>233</v>
@@ -6979,7 +6979,7 @@
         <v>7968</v>
       </c>
       <c r="B30" t="n">
-        <v>140268</v>
+        <v>171409</v>
       </c>
       <c r="C30" t="s">
         <v>241</v>
@@ -7050,7 +7050,7 @@
         <v>7968</v>
       </c>
       <c r="B31" t="n">
-        <v>140269</v>
+        <v>171410</v>
       </c>
       <c r="C31" t="s">
         <v>247</v>
@@ -7121,7 +7121,7 @@
         <v>7968</v>
       </c>
       <c r="B32" t="n">
-        <v>140270</v>
+        <v>171411</v>
       </c>
       <c r="C32" t="s">
         <v>253</v>
@@ -7186,7 +7186,7 @@
         <v>7968</v>
       </c>
       <c r="B33" t="n">
-        <v>140271</v>
+        <v>171412</v>
       </c>
       <c r="C33" t="s">
         <v>260</v>
@@ -7257,7 +7257,7 @@
         <v>7968</v>
       </c>
       <c r="B34" t="n">
-        <v>140272</v>
+        <v>171413</v>
       </c>
       <c r="C34" t="s">
         <v>266</v>
@@ -7318,7 +7318,7 @@
         <v>7968</v>
       </c>
       <c r="B35" t="n">
-        <v>140273</v>
+        <v>171414</v>
       </c>
       <c r="C35" t="s">
         <v>273</v>
@@ -7460,7 +7460,7 @@
         <v>7968</v>
       </c>
       <c r="B37" t="n">
-        <v>140274</v>
+        <v>171415</v>
       </c>
       <c r="C37" t="s">
         <v>285</v>
@@ -7525,7 +7525,7 @@
         <v>7968</v>
       </c>
       <c r="B38" t="n">
-        <v>140275</v>
+        <v>171416</v>
       </c>
       <c r="C38" t="s">
         <v>291</v>
@@ -7586,7 +7586,7 @@
         <v>7968</v>
       </c>
       <c r="B39" t="n">
-        <v>140276</v>
+        <v>171417</v>
       </c>
       <c r="C39" t="s">
         <v>298</v>
@@ -7722,7 +7722,7 @@
         <v>7968</v>
       </c>
       <c r="B41" t="n">
-        <v>140277</v>
+        <v>171418</v>
       </c>
       <c r="C41" t="s">
         <v>310</v>
@@ -7935,7 +7935,7 @@
         <v>7968</v>
       </c>
       <c r="B44" t="n">
-        <v>140278</v>
+        <v>171419</v>
       </c>
       <c r="C44" t="s">
         <v>329</v>
@@ -8077,7 +8077,7 @@
         <v>7968</v>
       </c>
       <c r="B46" t="n">
-        <v>140279</v>
+        <v>171420</v>
       </c>
       <c r="C46" t="s">
         <v>342</v>
@@ -8219,7 +8219,7 @@
         <v>7968</v>
       </c>
       <c r="B48" t="n">
-        <v>140280</v>
+        <v>171421</v>
       </c>
       <c r="C48" t="s">
         <v>354</v>
@@ -8284,7 +8284,7 @@
         <v>7968</v>
       </c>
       <c r="B49" t="n">
-        <v>140281</v>
+        <v>171422</v>
       </c>
       <c r="C49" t="s">
         <v>361</v>
@@ -8355,7 +8355,7 @@
         <v>7968</v>
       </c>
       <c r="B50" t="n">
-        <v>140282</v>
+        <v>171423</v>
       </c>
       <c r="C50" t="s">
         <v>367</v>
@@ -8426,7 +8426,7 @@
         <v>7968</v>
       </c>
       <c r="B51" t="n">
-        <v>140283</v>
+        <v>171424</v>
       </c>
       <c r="C51" t="s">
         <v>374</v>
@@ -8568,7 +8568,7 @@
         <v>7968</v>
       </c>
       <c r="B53" t="n">
-        <v>140284</v>
+        <v>171425</v>
       </c>
       <c r="C53" t="s">
         <v>386</v>
@@ -8704,7 +8704,7 @@
         <v>7968</v>
       </c>
       <c r="B55" t="n">
-        <v>140285</v>
+        <v>140280</v>
       </c>
       <c r="C55" t="s">
         <v>398</v>
@@ -8840,7 +8840,7 @@
         <v>7968</v>
       </c>
       <c r="B57" t="n">
-        <v>140286</v>
+        <v>171426</v>
       </c>
       <c r="C57" t="s">
         <v>412</v>
@@ -8911,7 +8911,7 @@
         <v>7968</v>
       </c>
       <c r="B58" t="n">
-        <v>140287</v>
+        <v>140285</v>
       </c>
       <c r="C58" t="s">
         <v>418</v>
@@ -8982,7 +8982,7 @@
         <v>7968</v>
       </c>
       <c r="B59" t="n">
-        <v>140288</v>
+        <v>171427</v>
       </c>
       <c r="C59" t="s">
         <v>424</v>
@@ -9053,7 +9053,7 @@
         <v>7968</v>
       </c>
       <c r="B60" t="n">
-        <v>140289</v>
+        <v>171428</v>
       </c>
       <c r="C60" t="s">
         <v>430</v>
@@ -9124,7 +9124,7 @@
         <v>7968</v>
       </c>
       <c r="B61" t="n">
-        <v>140290</v>
+        <v>171429</v>
       </c>
       <c r="C61" t="s">
         <v>436</v>
@@ -9195,7 +9195,7 @@
         <v>7968</v>
       </c>
       <c r="B62" t="n">
-        <v>140291</v>
+        <v>171430</v>
       </c>
       <c r="C62" t="s">
         <v>441</v>
@@ -9256,7 +9256,7 @@
         <v>7968</v>
       </c>
       <c r="B63" t="n">
-        <v>140292</v>
+        <v>171431</v>
       </c>
       <c r="C63" t="s">
         <v>447</v>
@@ -9317,7 +9317,7 @@
         <v>7968</v>
       </c>
       <c r="B64" t="n">
-        <v>140293</v>
+        <v>171432</v>
       </c>
       <c r="C64" t="s">
         <v>453</v>
@@ -9392,7 +9392,7 @@
         <v>7968</v>
       </c>
       <c r="B65" t="n">
-        <v>140294</v>
+        <v>171433</v>
       </c>
       <c r="C65" t="s">
         <v>462</v>
@@ -9601,7 +9601,7 @@
         <v>7968</v>
       </c>
       <c r="B68" t="n">
-        <v>140295</v>
+        <v>171434</v>
       </c>
       <c r="C68" t="s">
         <v>483</v>
@@ -9672,7 +9672,7 @@
         <v>7968</v>
       </c>
       <c r="B69" t="n">
-        <v>140296</v>
+        <v>171435</v>
       </c>
       <c r="C69" t="s">
         <v>490</v>
@@ -9733,7 +9733,7 @@
         <v>7968</v>
       </c>
       <c r="B70" t="n">
-        <v>140297</v>
+        <v>171436</v>
       </c>
       <c r="C70" t="s">
         <v>496</v>
@@ -9875,7 +9875,7 @@
         <v>7968</v>
       </c>
       <c r="B72" t="n">
-        <v>140298</v>
+        <v>171437</v>
       </c>
       <c r="C72" t="s">
         <v>508</v>
@@ -9946,7 +9946,7 @@
         <v>7968</v>
       </c>
       <c r="B73" t="n">
-        <v>140299</v>
+        <v>171438</v>
       </c>
       <c r="C73" t="s">
         <v>514</v>
@@ -10011,7 +10011,7 @@
         <v>7968</v>
       </c>
       <c r="B74" t="n">
-        <v>140300</v>
+        <v>171439</v>
       </c>
       <c r="C74" t="s">
         <v>521</v>
@@ -10082,7 +10082,7 @@
         <v>7968</v>
       </c>
       <c r="B75" t="n">
-        <v>140301</v>
+        <v>171440</v>
       </c>
       <c r="C75" t="s">
         <v>527</v>
@@ -10153,7 +10153,7 @@
         <v>7968</v>
       </c>
       <c r="B76" t="n">
-        <v>140302</v>
+        <v>171441</v>
       </c>
       <c r="C76" t="s">
         <v>534</v>
@@ -10218,7 +10218,7 @@
         <v>7968</v>
       </c>
       <c r="B77" t="n">
-        <v>140303</v>
+        <v>171442</v>
       </c>
       <c r="C77" t="s">
         <v>541</v>
@@ -10289,7 +10289,7 @@
         <v>7968</v>
       </c>
       <c r="B78" t="n">
-        <v>140304</v>
+        <v>171443</v>
       </c>
       <c r="C78" t="s">
         <v>548</v>
@@ -10431,7 +10431,7 @@
         <v>7968</v>
       </c>
       <c r="B80" t="n">
-        <v>140305</v>
+        <v>171444</v>
       </c>
       <c r="C80" t="s">
         <v>561</v>
@@ -10502,7 +10502,7 @@
         <v>7968</v>
       </c>
       <c r="B81" t="n">
-        <v>140306</v>
+        <v>171445</v>
       </c>
       <c r="C81" t="s">
         <v>567</v>
@@ -10571,7 +10571,7 @@
         <v>7968</v>
       </c>
       <c r="B82" t="n">
-        <v>140307</v>
+        <v>171446</v>
       </c>
       <c r="C82" t="s">
         <v>573</v>
@@ -10642,7 +10642,7 @@
         <v>7968</v>
       </c>
       <c r="B83" t="n">
-        <v>140308</v>
+        <v>171447</v>
       </c>
       <c r="C83" t="s">
         <v>578</v>
@@ -10709,7 +10709,7 @@
         <v>7968</v>
       </c>
       <c r="B84" t="n">
-        <v>140309</v>
+        <v>171448</v>
       </c>
       <c r="C84" t="s">
         <v>584</v>
@@ -10843,7 +10843,7 @@
         <v>7968</v>
       </c>
       <c r="B86" t="n">
-        <v>140310</v>
+        <v>171449</v>
       </c>
       <c r="C86" t="s">
         <v>597</v>
@@ -10914,7 +10914,7 @@
         <v>7968</v>
       </c>
       <c r="B87" t="n">
-        <v>140311</v>
+        <v>171450</v>
       </c>
       <c r="C87" t="s">
         <v>604</v>
@@ -10985,7 +10985,7 @@
         <v>7968</v>
       </c>
       <c r="B88" t="n">
-        <v>140312</v>
+        <v>171451</v>
       </c>
       <c r="C88" t="s">
         <v>610</v>
@@ -11127,7 +11127,7 @@
         <v>7968</v>
       </c>
       <c r="B90" t="n">
-        <v>140313</v>
+        <v>171452</v>
       </c>
       <c r="C90" t="s">
         <v>622</v>
@@ -11198,7 +11198,7 @@
         <v>7968</v>
       </c>
       <c r="B91" t="n">
-        <v>140314</v>
+        <v>171453</v>
       </c>
       <c r="C91" t="s">
         <v>628</v>
@@ -11269,7 +11269,7 @@
         <v>7968</v>
       </c>
       <c r="B92" t="n">
-        <v>140315</v>
+        <v>171454</v>
       </c>
       <c r="C92" t="s">
         <v>634</v>
@@ -11407,7 +11407,7 @@
         <v>7968</v>
       </c>
       <c r="B94" t="n">
-        <v>140316</v>
+        <v>171455</v>
       </c>
       <c r="C94" t="s">
         <v>647</v>
@@ -11478,7 +11478,7 @@
         <v>7968</v>
       </c>
       <c r="B95" t="n">
-        <v>140317</v>
+        <v>171456</v>
       </c>
       <c r="C95" t="s">
         <v>653</v>
@@ -11616,7 +11616,7 @@
         <v>7968</v>
       </c>
       <c r="B97" t="n">
-        <v>140318</v>
+        <v>171457</v>
       </c>
       <c r="C97" t="s">
         <v>665</v>
@@ -11748,7 +11748,7 @@
         <v>7968</v>
       </c>
       <c r="B99" t="n">
-        <v>140319</v>
+        <v>171458</v>
       </c>
       <c r="C99" t="s">
         <v>677</v>
@@ -11884,7 +11884,7 @@
         <v>7968</v>
       </c>
       <c r="B101" t="n">
-        <v>140320</v>
+        <v>171459</v>
       </c>
       <c r="C101" t="s">
         <v>690</v>
@@ -11955,7 +11955,7 @@
         <v>7968</v>
       </c>
       <c r="B102" t="n">
-        <v>140284</v>
+        <v>140280</v>
       </c>
       <c r="C102" t="s">
         <v>398</v>
@@ -12026,7 +12026,7 @@
         <v>7968</v>
       </c>
       <c r="B103" t="n">
-        <v>140321</v>
+        <v>171460</v>
       </c>
       <c r="C103" t="s">
         <v>702</v>
@@ -12097,7 +12097,7 @@
         <v>7968</v>
       </c>
       <c r="B104" t="n">
-        <v>140322</v>
+        <v>171461</v>
       </c>
       <c r="C104" t="s">
         <v>708</v>
@@ -12166,7 +12166,7 @@
         <v>7968</v>
       </c>
       <c r="B105" t="n">
-        <v>140323</v>
+        <v>171462</v>
       </c>
       <c r="C105" t="s">
         <v>714</v>
@@ -12233,7 +12233,7 @@
         <v>7968</v>
       </c>
       <c r="B106" t="n">
-        <v>140324</v>
+        <v>171463</v>
       </c>
       <c r="C106" t="s">
         <v>720</v>
@@ -12304,7 +12304,7 @@
         <v>7968</v>
       </c>
       <c r="B107" t="n">
-        <v>140325</v>
+        <v>171464</v>
       </c>
       <c r="C107" t="s">
         <v>725</v>
@@ -12375,7 +12375,7 @@
         <v>7968</v>
       </c>
       <c r="B108" t="n">
-        <v>140326</v>
+        <v>171465</v>
       </c>
       <c r="C108" t="s">
         <v>731</v>
@@ -12446,7 +12446,7 @@
         <v>7968</v>
       </c>
       <c r="B109" t="n">
-        <v>140327</v>
+        <v>171466</v>
       </c>
       <c r="C109" t="s">
         <v>737</v>
@@ -12578,7 +12578,7 @@
         <v>7968</v>
       </c>
       <c r="B111" t="n">
-        <v>140328</v>
+        <v>171467</v>
       </c>
       <c r="C111" t="s">
         <v>750</v>
@@ -12716,7 +12716,7 @@
         <v>7968</v>
       </c>
       <c r="B113" t="n">
-        <v>140329</v>
+        <v>171468</v>
       </c>
       <c r="C113" t="s">
         <v>761</v>
@@ -12785,7 +12785,7 @@
         <v>7968</v>
       </c>
       <c r="B114" t="n">
-        <v>140330</v>
+        <v>171469</v>
       </c>
       <c r="C114" t="s">
         <v>767</v>
@@ -12929,7 +12929,7 @@
         <v>7968</v>
       </c>
       <c r="B116" t="n">
-        <v>140331</v>
+        <v>171470</v>
       </c>
       <c r="C116" t="s">
         <v>783</v>
@@ -13000,7 +13000,7 @@
         <v>7968</v>
       </c>
       <c r="B117" t="n">
-        <v>140332</v>
+        <v>171471</v>
       </c>
       <c r="C117" t="s">
         <v>789</v>
@@ -13142,7 +13142,7 @@
         <v>7968</v>
       </c>
       <c r="B119" t="n">
-        <v>140286</v>
+        <v>140285</v>
       </c>
       <c r="C119" t="s">
         <v>418</v>
@@ -13217,7 +13217,7 @@
         <v>7968</v>
       </c>
       <c r="B120" t="n">
-        <v>140333</v>
+        <v>171472</v>
       </c>
       <c r="C120" t="s">
         <v>810</v>
@@ -13359,7 +13359,7 @@
         <v>7968</v>
       </c>
       <c r="B122" t="n">
-        <v>140334</v>
+        <v>171473</v>
       </c>
       <c r="C122" t="s">
         <v>822</v>
@@ -13708,7 +13708,7 @@
         <v>7968</v>
       </c>
       <c r="B127" t="n">
-        <v>140335</v>
+        <v>171474</v>
       </c>
       <c r="C127" t="s">
         <v>859</v>
@@ -13769,7 +13769,7 @@
         <v>7968</v>
       </c>
       <c r="B128" t="n">
-        <v>140336</v>
+        <v>171475</v>
       </c>
       <c r="C128" t="s">
         <v>866</v>
@@ -13844,7 +13844,7 @@
         <v>7968</v>
       </c>
       <c r="B129" t="n">
-        <v>140337</v>
+        <v>171476</v>
       </c>
       <c r="C129" t="s">
         <v>876</v>
@@ -13915,7 +13915,7 @@
         <v>7968</v>
       </c>
       <c r="B130" t="n">
-        <v>140338</v>
+        <v>171477</v>
       </c>
       <c r="C130" t="s">
         <v>881</v>
@@ -14061,7 +14061,7 @@
         <v>7968</v>
       </c>
       <c r="B132" t="n">
-        <v>140339</v>
+        <v>171478</v>
       </c>
       <c r="C132" t="s">
         <v>894</v>
@@ -14122,7 +14122,7 @@
         <v>7968</v>
       </c>
       <c r="B133" t="n">
-        <v>140340</v>
+        <v>171479</v>
       </c>
       <c r="C133" t="s">
         <v>899</v>
@@ -14193,7 +14193,7 @@
         <v>7968</v>
       </c>
       <c r="B134" t="n">
-        <v>140341</v>
+        <v>171480</v>
       </c>
       <c r="C134" t="s">
         <v>905</v>
@@ -14264,7 +14264,7 @@
         <v>7968</v>
       </c>
       <c r="B135" t="n">
-        <v>140342</v>
+        <v>171481</v>
       </c>
       <c r="C135" t="s">
         <v>911</v>
@@ -14339,7 +14339,7 @@
         <v>7968</v>
       </c>
       <c r="B136" t="n">
-        <v>140343</v>
+        <v>171482</v>
       </c>
       <c r="C136" t="s">
         <v>920</v>
@@ -14408,7 +14408,7 @@
         <v>7968</v>
       </c>
       <c r="B137" t="n">
-        <v>140344</v>
+        <v>171483</v>
       </c>
       <c r="C137" t="s">
         <v>927</v>
@@ -14548,7 +14548,7 @@
         <v>7968</v>
       </c>
       <c r="B139" t="n">
-        <v>140345</v>
+        <v>171484</v>
       </c>
       <c r="C139" t="s">
         <v>943</v>
@@ -14619,7 +14619,7 @@
         <v>7968</v>
       </c>
       <c r="B140" t="n">
-        <v>140346</v>
+        <v>171485</v>
       </c>
       <c r="C140" t="s">
         <v>950</v>
@@ -14690,7 +14690,7 @@
         <v>7968</v>
       </c>
       <c r="B141" t="n">
-        <v>140347</v>
+        <v>171486</v>
       </c>
       <c r="C141" t="s">
         <v>956</v>
@@ -14761,7 +14761,7 @@
         <v>7968</v>
       </c>
       <c r="B142" t="n">
-        <v>140348</v>
+        <v>171487</v>
       </c>
       <c r="C142" t="s">
         <v>962</v>
@@ -14832,7 +14832,7 @@
         <v>7968</v>
       </c>
       <c r="B143" t="n">
-        <v>140349</v>
+        <v>171488</v>
       </c>
       <c r="C143" t="s">
         <v>968</v>
@@ -15039,7 +15039,7 @@
         <v>7968</v>
       </c>
       <c r="B146" t="n">
-        <v>140350</v>
+        <v>171489</v>
       </c>
       <c r="C146" t="s">
         <v>987</v>
@@ -15110,7 +15110,7 @@
         <v>7968</v>
       </c>
       <c r="B147" t="n">
-        <v>140351</v>
+        <v>171490</v>
       </c>
       <c r="C147" t="s">
         <v>993</v>
@@ -15252,7 +15252,7 @@
         <v>7968</v>
       </c>
       <c r="B149" t="n">
-        <v>140352</v>
+        <v>171491</v>
       </c>
       <c r="C149" t="s">
         <v>1005</v>
@@ -15317,7 +15317,7 @@
         <v>7968</v>
       </c>
       <c r="B150" t="n">
-        <v>140353</v>
+        <v>171492</v>
       </c>
       <c r="C150" t="s">
         <v>1013</v>
@@ -15382,7 +15382,7 @@
         <v>7968</v>
       </c>
       <c r="B151" t="n">
-        <v>140354</v>
+        <v>171493</v>
       </c>
       <c r="C151" t="s">
         <v>1018</v>
@@ -15522,7 +15522,7 @@
         <v>7968</v>
       </c>
       <c r="B153" t="n">
-        <v>140355</v>
+        <v>171494</v>
       </c>
       <c r="C153" t="s">
         <v>1033</v>
@@ -15656,7 +15656,7 @@
         <v>7968</v>
       </c>
       <c r="B155" t="n">
-        <v>140356</v>
+        <v>171495</v>
       </c>
       <c r="C155" t="s">
         <v>1044</v>
@@ -15727,7 +15727,7 @@
         <v>7968</v>
       </c>
       <c r="B156" t="n">
-        <v>140357</v>
+        <v>171496</v>
       </c>
       <c r="C156" t="s">
         <v>1050</v>
@@ -15802,7 +15802,7 @@
         <v>7968</v>
       </c>
       <c r="B157" t="n">
-        <v>140358</v>
+        <v>171497</v>
       </c>
       <c r="C157" t="s">
         <v>1058</v>
@@ -15952,7 +15952,7 @@
         <v>7968</v>
       </c>
       <c r="B159" t="n">
-        <v>140359</v>
+        <v>171498</v>
       </c>
       <c r="C159" t="s">
         <v>1076</v>
@@ -16027,7 +16027,7 @@
         <v>7968</v>
       </c>
       <c r="B160" t="n">
-        <v>140360</v>
+        <v>171499</v>
       </c>
       <c r="C160" t="s">
         <v>1083</v>
@@ -16098,7 +16098,7 @@
         <v>7968</v>
       </c>
       <c r="B161" t="n">
-        <v>140361</v>
+        <v>171500</v>
       </c>
       <c r="C161" t="s">
         <v>1090</v>
@@ -16167,7 +16167,7 @@
         <v>7968</v>
       </c>
       <c r="B162" t="n">
-        <v>140362</v>
+        <v>171501</v>
       </c>
       <c r="C162" t="s">
         <v>1099</v>
@@ -16232,7 +16232,7 @@
         <v>7968</v>
       </c>
       <c r="B163" t="n">
-        <v>140363</v>
+        <v>171502</v>
       </c>
       <c r="C163" t="s">
         <v>1106</v>
@@ -16307,7 +16307,7 @@
         <v>7968</v>
       </c>
       <c r="B164" t="n">
-        <v>140364</v>
+        <v>171503</v>
       </c>
       <c r="C164" t="s">
         <v>1112</v>
@@ -16382,7 +16382,7 @@
         <v>7968</v>
       </c>
       <c r="B165" t="n">
-        <v>140365</v>
+        <v>171504</v>
       </c>
       <c r="C165" t="s">
         <v>1121</v>
@@ -16451,7 +16451,7 @@
         <v>7968</v>
       </c>
       <c r="B166" t="n">
-        <v>140366</v>
+        <v>171505</v>
       </c>
       <c r="C166" t="s">
         <v>1128</v>
@@ -16516,7 +16516,7 @@
         <v>7968</v>
       </c>
       <c r="B167" t="n">
-        <v>140367</v>
+        <v>171506</v>
       </c>
       <c r="C167" t="s">
         <v>1137</v>
@@ -16585,7 +16585,7 @@
         <v>7968</v>
       </c>
       <c r="B168" t="n">
-        <v>140368</v>
+        <v>171507</v>
       </c>
       <c r="C168" t="s">
         <v>1144</v>
@@ -16660,7 +16660,7 @@
         <v>7968</v>
       </c>
       <c r="B169" t="n">
-        <v>140369</v>
+        <v>171508</v>
       </c>
       <c r="C169" t="s">
         <v>1153</v>
@@ -16806,7 +16806,7 @@
         <v>7968</v>
       </c>
       <c r="B171" t="n">
-        <v>140370</v>
+        <v>171509</v>
       </c>
       <c r="C171" t="s">
         <v>1168</v>
@@ -16956,7 +16956,7 @@
         <v>7968</v>
       </c>
       <c r="B173" t="n">
-        <v>140371</v>
+        <v>171510</v>
       </c>
       <c r="C173" t="s">
         <v>1182</v>
@@ -17025,7 +17025,7 @@
         <v>7968</v>
       </c>
       <c r="B174" t="n">
-        <v>140372</v>
+        <v>171511</v>
       </c>
       <c r="C174" t="s">
         <v>1189</v>
@@ -17100,7 +17100,7 @@
         <v>7968</v>
       </c>
       <c r="B175" t="n">
-        <v>140373</v>
+        <v>171512</v>
       </c>
       <c r="C175" t="s">
         <v>1196</v>
@@ -17240,7 +17240,7 @@
         <v>7968</v>
       </c>
       <c r="B177" t="n">
-        <v>140374</v>
+        <v>171513</v>
       </c>
       <c r="C177" t="s">
         <v>1209</v>
@@ -17528,7 +17528,7 @@
         <v>7968</v>
       </c>
       <c r="B181" t="n">
-        <v>140375</v>
+        <v>171514</v>
       </c>
       <c r="C181" t="s">
         <v>1235</v>
@@ -17599,7 +17599,7 @@
         <v>7968</v>
       </c>
       <c r="B182" t="n">
-        <v>140376</v>
+        <v>171515</v>
       </c>
       <c r="C182" t="s">
         <v>1242</v>
@@ -17664,7 +17664,7 @@
         <v>7968</v>
       </c>
       <c r="B183" t="n">
-        <v>140377</v>
+        <v>171516</v>
       </c>
       <c r="C183" t="s">
         <v>1248</v>
@@ -17735,7 +17735,7 @@
         <v>7968</v>
       </c>
       <c r="B184" t="n">
-        <v>140378</v>
+        <v>171517</v>
       </c>
       <c r="C184" t="s">
         <v>1254</v>
@@ -17806,7 +17806,7 @@
         <v>7968</v>
       </c>
       <c r="B185" t="n">
-        <v>140379</v>
+        <v>171518</v>
       </c>
       <c r="C185" t="s">
         <v>1260</v>
@@ -17875,7 +17875,7 @@
         <v>7968</v>
       </c>
       <c r="B186" t="n">
-        <v>140380</v>
+        <v>171519</v>
       </c>
       <c r="C186" t="s">
         <v>1269</v>
@@ -18088,7 +18088,7 @@
         <v>7968</v>
       </c>
       <c r="B189" t="n">
-        <v>140381</v>
+        <v>171520</v>
       </c>
       <c r="C189" t="s">
         <v>1286</v>
@@ -18159,7 +18159,7 @@
         <v>7968</v>
       </c>
       <c r="B190" t="n">
-        <v>140382</v>
+        <v>171521</v>
       </c>
       <c r="C190" t="s">
         <v>1292</v>
@@ -18234,7 +18234,7 @@
         <v>7968</v>
       </c>
       <c r="B191" t="n">
-        <v>140383</v>
+        <v>171522</v>
       </c>
       <c r="C191" t="s">
         <v>1301</v>
@@ -18374,7 +18374,7 @@
         <v>7968</v>
       </c>
       <c r="B193" t="n">
-        <v>140384</v>
+        <v>171523</v>
       </c>
       <c r="C193" t="s">
         <v>1317</v>
@@ -18449,7 +18449,7 @@
         <v>7968</v>
       </c>
       <c r="B194" t="n">
-        <v>140385</v>
+        <v>171524</v>
       </c>
       <c r="C194" t="s">
         <v>1324</v>
@@ -18518,7 +18518,7 @@
         <v>7968</v>
       </c>
       <c r="B195" t="n">
-        <v>140386</v>
+        <v>171525</v>
       </c>
       <c r="C195" t="s">
         <v>1333</v>
@@ -18654,7 +18654,7 @@
         <v>7968</v>
       </c>
       <c r="B197" t="n">
-        <v>140387</v>
+        <v>171526</v>
       </c>
       <c r="C197" t="s">
         <v>1345</v>
@@ -18924,7 +18924,7 @@
         <v>7968</v>
       </c>
       <c r="B201" t="n">
-        <v>140388</v>
+        <v>171527</v>
       </c>
       <c r="C201" t="s">
         <v>1373</v>
@@ -18981,7 +18981,7 @@
         <v>7968</v>
       </c>
       <c r="B202" t="n">
-        <v>140389</v>
+        <v>171528</v>
       </c>
       <c r="C202" t="s">
         <v>1380</v>
@@ -19131,7 +19131,7 @@
         <v>7968</v>
       </c>
       <c r="B204" t="n">
-        <v>140390</v>
+        <v>171529</v>
       </c>
       <c r="C204" t="s">
         <v>1396</v>
@@ -19206,7 +19206,7 @@
         <v>7968</v>
       </c>
       <c r="B205" t="n">
-        <v>140391</v>
+        <v>171530</v>
       </c>
       <c r="C205" t="s">
         <v>1405</v>
@@ -19273,7 +19273,7 @@
         <v>7968</v>
       </c>
       <c r="B206" t="n">
-        <v>140392</v>
+        <v>171531</v>
       </c>
       <c r="C206" t="s">
         <v>1412</v>
@@ -19340,7 +19340,7 @@
         <v>7968</v>
       </c>
       <c r="B207" t="n">
-        <v>140393</v>
+        <v>171532</v>
       </c>
       <c r="C207" t="s">
         <v>1419</v>
@@ -19411,7 +19411,7 @@
         <v>7968</v>
       </c>
       <c r="B208" t="n">
-        <v>140394</v>
+        <v>171533</v>
       </c>
       <c r="C208" t="s">
         <v>1425</v>
@@ -19472,7 +19472,7 @@
         <v>7968</v>
       </c>
       <c r="B209" t="n">
-        <v>140395</v>
+        <v>171534</v>
       </c>
       <c r="C209" t="s">
         <v>1431</v>
@@ -19610,7 +19610,7 @@
         <v>7968</v>
       </c>
       <c r="B211" t="n">
-        <v>140396</v>
+        <v>171535</v>
       </c>
       <c r="C211" t="s">
         <v>1444</v>
@@ -19681,7 +19681,7 @@
         <v>7968</v>
       </c>
       <c r="B212" t="n">
-        <v>140397</v>
+        <v>171536</v>
       </c>
       <c r="C212" t="s">
         <v>1450</v>
@@ -19742,7 +19742,7 @@
         <v>7968</v>
       </c>
       <c r="B213" t="n">
-        <v>140398</v>
+        <v>171537</v>
       </c>
       <c r="C213" t="s">
         <v>1457</v>
@@ -20101,7 +20101,7 @@
         <v>7968</v>
       </c>
       <c r="B218" t="n">
-        <v>140399</v>
+        <v>171538</v>
       </c>
       <c r="C218" t="s">
         <v>1491</v>
